--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssipani/Documents/Node.js/freshworks_task/ticket_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D70AA1-9625-5349-84AD-43AE0BD1689C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFD3C3-4B1D-984A-BBD4-48DBAAB22078}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6825F2E9-4EE6-2044-A73B-E2774596C664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$4:$C$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4:$D$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$4:$E$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$4:$F$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$4:$G$24</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +69,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,19 +98,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,21 +126,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -166,6 +227,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of requests/sec vs Number of connections</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -204,9 +295,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Homepage</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -221,7 +309,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -293,7 +381,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$24</c:f>
+              <c:f>Sheet1!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -373,9 +461,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>GET Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -390,7 +475,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -462,7 +547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$24</c:f>
+              <c:f>Sheet1!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -542,9 +627,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>DELETE Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -559,7 +641,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -631,7 +713,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$24</c:f>
+              <c:f>Sheet1!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -711,9 +793,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>PUT Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -728,7 +807,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -800,7 +879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$24</c:f>
+              <c:f>Sheet1!$F$4:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -880,9 +959,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>POST Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -897,7 +973,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -969,7 +1045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$24</c:f>
+              <c:f>Sheet1!$G$4:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1049,9 +1125,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Miscellaneous</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1066,7 +1139,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1138,7 +1211,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$24</c:f>
+              <c:f>Sheet1!$H$4:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1981,15 +2054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2105526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1971842</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>183816</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66841</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>150394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2015,6 +2088,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A78A661-75D7-BB49-A51C-7B421AB12841}" name="Table1" displayName="Table1" ref="B3:H24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:H24" xr:uid="{FD8C2402-91FB-1A4E-957E-26ED741E09FA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{95B3DAC0-95C6-9B49-AD61-CDFB3E23BF1B}" name="Number of connections" dataDxfId="7">
+      <calculatedColumnFormula>B3+100000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{114F60BA-1064-6443-9658-460EA5015D04}" name="Get homepage" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FF1B5839-A9DC-0044-8527-1FB29B461581}" name="Get ticket by ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{64CF8A59-A725-C14D-B897-E10141EDEE46}" name="Delete ticket" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2D1AF3E7-DC44-0F42-9D7A-8D4344040430}" name="Update ticket" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6D608FB9-E29A-4541-9A67-DE24C4A783FD}" name="Create ticket" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D2E36C0D-AA15-F34E-A516-BA49D7239F49}" name="Mixture of requests" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2317,553 +2408,577 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="24">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20">
-      <c r="A4" s="4">
+      <c r="B4" s="1">
         <v>2000000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="C4" s="3">
         <v>72.19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="3">
         <v>20.9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>375.33</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="3">
         <v>458.05</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>72.08</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="3">
         <v>73.66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20">
-      <c r="A5" s="4">
+      <c r="B5" s="1">
         <v>2100000</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="3">
         <v>218.04</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="3">
         <v>75.09</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>370.96</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="3">
         <v>82.46</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="3">
         <v>81.13</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="3">
         <v>182.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20">
-      <c r="A6" s="4">
+      <c r="B6" s="1">
         <v>2200000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="3">
         <v>152.24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="3">
         <v>56.9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="2">
         <v>322.24</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="3">
         <v>213.01</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="3">
         <v>0.22</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="3">
         <v>159.63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20">
-      <c r="A7" s="4">
-        <f>A6+100000</f>
+      <c r="B7" s="1">
+        <f>B6+100000</f>
         <v>2300000</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="3">
         <v>119.81</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="3">
         <v>1.73</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="2">
         <v>261.79000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="3">
         <v>290.2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="3">
         <v>1.57</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="3">
         <v>132.25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20">
-      <c r="A8" s="4">
-        <f t="shared" ref="A8:A24" si="0">A7+100000</f>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B24" si="0">B7+100000</f>
         <v>2400000</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="3">
         <v>52.75</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="3">
         <v>50.5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="2">
         <v>40.49</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="3">
         <v>240.79</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="3">
         <v>1.84</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="3">
         <v>104.59</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20">
-      <c r="A9" s="4">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="3">
         <v>24.15</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="3">
         <v>1.79</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="2">
         <v>157.66999999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="3">
         <v>69.819999999999993</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="3">
         <v>18.89</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="3">
         <v>57.66</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20">
-      <c r="A10" s="4">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>2600000</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="3">
         <v>5.51</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="3">
         <v>1.38</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="2">
         <v>65.23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="3">
         <v>8.57</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="3">
         <v>50.02</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20">
-      <c r="A11" s="4">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2700000</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="3">
         <v>4.38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="3">
         <v>2.33</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="2">
         <v>13.63</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="3">
         <v>1.59</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="3">
         <v>20.55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20">
-      <c r="A12" s="4">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="3">
         <v>6.05</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="3">
         <v>1.64</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="2">
         <v>16.25</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="3">
         <v>4.32</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="3">
         <v>2.21</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="3">
         <v>4.58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20">
-      <c r="A13" s="4">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="3">
         <v>2.09</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="2">
         <v>12.13</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="3">
         <v>4.97</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="3">
         <v>3.7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20">
-      <c r="A14" s="4">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="3">
         <v>3.36</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="2">
         <v>11.42</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="3">
         <v>4.59</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="3">
         <v>1.68</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="3">
         <v>5.66</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20">
-      <c r="A15" s="4">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>3100000</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="3">
         <v>2.1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="2">
         <v>9.81</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="3">
         <v>7.73</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="3">
         <v>3.62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20">
-      <c r="A16" s="4">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>3200000</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="3">
         <v>1.25</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="2">
         <v>9.06</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="3">
         <v>3.97</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="3">
         <v>0.9</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="3">
         <v>2.93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20">
-      <c r="A17" s="4">
+    <row r="17" spans="2:8" ht="20">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>3300000</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="3">
         <v>1.73</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="2">
         <v>6.46</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="3">
         <v>7.31</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="3">
         <v>1.74</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20">
-      <c r="A18" s="4">
+    <row r="18" spans="2:8" ht="20">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="3">
         <v>0.46</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="2">
         <v>1.41</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="3">
         <v>7.49</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="3">
         <v>1.56</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="3">
         <v>2.57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20">
-      <c r="A19" s="4">
+    <row r="19" spans="2:8" ht="20">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>3500000</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="3">
         <v>5.97</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="3">
         <v>0.98</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="2">
         <v>5.36</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="3">
         <v>4.99</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="3">
         <v>3.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20">
-      <c r="A20" s="4">
+    <row r="20" spans="2:8" ht="20">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
-      <c r="B20" s="6">
+      <c r="C20" s="3">
         <v>6.45</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="3">
         <v>1.3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="2">
         <v>9.36</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="3">
         <v>1.48</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="3">
         <v>3.38</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="3">
         <v>0.34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20">
-      <c r="A21" s="4">
+    <row r="21" spans="2:8" ht="20">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>3700000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C21" s="3">
         <v>6.78</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="3">
         <v>1.56</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="2">
         <v>2.54</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="3">
         <v>4.08</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="3">
         <v>1.72</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="3">
         <v>5.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20">
-      <c r="A22" s="4">
+    <row r="22" spans="2:8" ht="20">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>3800000</v>
       </c>
-      <c r="B22" s="6">
+      <c r="C22" s="3">
         <v>5.93</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="3">
         <v>0.75</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="2">
         <v>8.8800000000000008</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="3">
         <v>5.89</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="3">
         <v>1.26</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="3">
         <v>2.66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20">
-      <c r="A23" s="4">
+    <row r="23" spans="2:8" ht="20">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>3900000</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="3">
         <v>0.63</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="2">
         <v>4.72</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="3">
         <v>3.53</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="3">
         <v>1.33</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="3">
         <v>1.22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20">
-      <c r="A24" s="4">
+    <row r="24" spans="2:8" ht="20">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="B24" s="6">
+      <c r="C24" s="3">
         <v>5.57</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="3">
         <v>0.76</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="2">
         <v>3.14</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="3">
         <v>3.21</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="3">
         <v>1.8</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="3">
         <v>0.33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssipani/Documents/Node.js/freshworks_task/ticket_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFD3C3-4B1D-984A-BBD4-48DBAAB22078}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1B3B3D-EA12-654C-82DF-6DBF63FC1BE6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6825F2E9-4EE6-2044-A73B-E2774596C664}"/>
   </bookViews>
@@ -133,35 +133,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -193,6 +175,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="15"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -295,6 +295,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Homepage</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -461,6 +464,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>GET Request</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -627,6 +633,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>DELETE Request</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -793,6 +802,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>PUT Request</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -959,6 +971,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>POST Request</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1125,6 +1140,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>MIscellaneous</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1423,8 +1441,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.21859075661146229"/>
           <c:y val="0.97098267404331395"/>
-          <c:w val="0.64726293271781665"/>
-          <c:h val="2.9017325956686008E-2"/>
+          <c:w val="0.48177003087974918"/>
+          <c:h val="2.1410832754056457E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2091,18 +2109,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A78A661-75D7-BB49-A51C-7B421AB12841}" name="Table1" displayName="Table1" ref="B3:H24" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A78A661-75D7-BB49-A51C-7B421AB12841}" name="Table1" displayName="Table1" ref="B3:H24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B3:H24" xr:uid="{FD8C2402-91FB-1A4E-957E-26ED741E09FA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{95B3DAC0-95C6-9B49-AD61-CDFB3E23BF1B}" name="Number of connections" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{95B3DAC0-95C6-9B49-AD61-CDFB3E23BF1B}" name="Number of connections" dataDxfId="6">
       <calculatedColumnFormula>B3+100000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{114F60BA-1064-6443-9658-460EA5015D04}" name="Get homepage" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FF1B5839-A9DC-0044-8527-1FB29B461581}" name="Get ticket by ID" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{64CF8A59-A725-C14D-B897-E10141EDEE46}" name="Delete ticket" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2D1AF3E7-DC44-0F42-9D7A-8D4344040430}" name="Update ticket" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6D608FB9-E29A-4541-9A67-DE24C4A783FD}" name="Create ticket" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D2E36C0D-AA15-F34E-A516-BA49D7239F49}" name="Mixture of requests" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{114F60BA-1064-6443-9658-460EA5015D04}" name="Get homepage" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FF1B5839-A9DC-0044-8527-1FB29B461581}" name="Get ticket by ID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{64CF8A59-A725-C14D-B897-E10141EDEE46}" name="Delete ticket" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2D1AF3E7-DC44-0F42-9D7A-8D4344040430}" name="Update ticket" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6D608FB9-E29A-4541-9A67-DE24C4A783FD}" name="Create ticket" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D2E36C0D-AA15-F34E-A516-BA49D7239F49}" name="Mixture of requests" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2407,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18179B4F-CD3C-5047-B514-4BFAA7EE5BB6}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="76" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2424,48 +2442,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="24">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssipani/Documents/Node.js/freshworks_task/ticket_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1B3B3D-EA12-654C-82DF-6DBF63FC1BE6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A345A3F-53EC-FD4B-98BA-2984B7A9B255}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6825F2E9-4EE6-2044-A73B-E2774596C664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$4:$B$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4:$C$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$4:$D$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$4:$E$24</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$4:$F$24</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$4:$G$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$4:$H$24</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1141,7 +1150,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>MIscellaneous</c:v>
+            <c:v>Miscellaneous</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2425,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18179B4F-CD3C-5047-B514-4BFAA7EE5BB6}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="76" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssipani/Documents/Node.js/freshworks_task/ticket_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A345A3F-53EC-FD4B-98BA-2984B7A9B255}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB8D72-39B5-D248-8F3B-8E8780951C25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6825F2E9-4EE6-2044-A73B-E2774596C664}"/>
   </bookViews>
@@ -16,13 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4:$C$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$4:$D$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$4:$E$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$4:$F$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$4:$G$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$4:$H$24</definedName>
+    <definedName name="Homepage">Table1[Get homepage]</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Number of connections</t>
   </si>
@@ -64,12 +58,51 @@
   <si>
     <t>Table summarizing number of requests per second</t>
   </si>
+  <si>
+    <t>Series1</t>
+  </si>
+  <si>
+    <t>Series2</t>
+  </si>
+  <si>
+    <t>Series3</t>
+  </si>
+  <si>
+    <t>Series4</t>
+  </si>
+  <si>
+    <t>Series5</t>
+  </si>
+  <si>
+    <t>Series6</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>GET Request</t>
+  </si>
+  <si>
+    <t>DELETE Request</t>
+  </si>
+  <si>
+    <t>PUT Request</t>
+  </si>
+  <si>
+    <t>POST Request</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +147,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -148,6 +193,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,9 +351,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Homepage</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -473,9 +517,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>GET Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -642,9 +683,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>DELETE Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -811,9 +849,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>PUT Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -980,9 +1015,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>POST Request</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1149,9 +1181,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Miscellaneous</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2432,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18179B4F-CD3C-5047-B514-4BFAA7EE5BB6}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="76" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2997,6 +3026,59 @@
         <v>0.33</v>
       </c>
     </row>
+    <row r="79" spans="3:3" ht="26">
+      <c r="C79" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" ht="21">
+      <c r="C81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" ht="21">
+      <c r="C82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" ht="21">
+      <c r="C83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" ht="21">
+      <c r="C84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" ht="21">
+      <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" ht="21">
+      <c r="C86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssipani/Documents/Node.js/freshworks_task/ticket_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB8D72-39B5-D248-8F3B-8E8780951C25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70503B63-8343-6747-9C16-01931F52B0FF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{6825F2E9-4EE6-2044-A73B-E2774596C664}"/>
   </bookViews>
@@ -190,11 +190,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2463,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18179B4F-CD3C-5047-B514-4BFAA7EE5BB6}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="76" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -2480,11 +2480,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3027,55 +3027,55 @@
       </c>
     </row>
     <row r="79" spans="3:3" ht="26">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="21">
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="21">
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="21">
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="21">
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="21">
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="21">
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>19</v>
       </c>
     </row>
